--- a/Code/Results/Cases/Case_5_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.11614660427147</v>
+        <v>17.29619540223941</v>
       </c>
       <c r="C2">
-        <v>19.41152626607807</v>
+        <v>10.86081673650695</v>
       </c>
       <c r="D2">
-        <v>4.081514162198901</v>
+        <v>5.839207731680963</v>
       </c>
       <c r="E2">
-        <v>9.263226182751643</v>
+        <v>9.411092624575813</v>
       </c>
       <c r="F2">
-        <v>39.07340964056876</v>
+        <v>34.4767854725484</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.3299322226635</v>
+        <v>16.72178415589129</v>
       </c>
       <c r="N2">
-        <v>12.79841478287556</v>
+        <v>18.65609438729731</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20586217997977</v>
+        <v>16.66770173180015</v>
       </c>
       <c r="C3">
-        <v>17.99903521126051</v>
+        <v>10.25130124603323</v>
       </c>
       <c r="D3">
-        <v>4.106725240448675</v>
+        <v>5.855014677497666</v>
       </c>
       <c r="E3">
-        <v>8.757731702546875</v>
+        <v>9.327985292081859</v>
       </c>
       <c r="F3">
-        <v>36.84099457653427</v>
+        <v>33.95775021068366</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.86425681150145</v>
+        <v>16.43211586361196</v>
       </c>
       <c r="N3">
-        <v>12.96750301723616</v>
+        <v>18.704559713776</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.97814064316639</v>
+        <v>16.27552129864774</v>
       </c>
       <c r="C4">
-        <v>17.0916002571769</v>
+        <v>9.861107621943347</v>
       </c>
       <c r="D4">
-        <v>4.126693220434888</v>
+        <v>5.865738270268817</v>
       </c>
       <c r="E4">
-        <v>8.445555453517127</v>
+        <v>9.279504279466662</v>
       </c>
       <c r="F4">
-        <v>35.45544628275768</v>
+        <v>33.6467760026637</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.92322727605632</v>
+        <v>16.25729199141953</v>
       </c>
       <c r="N4">
-        <v>13.07720895715005</v>
+        <v>18.73625885600953</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46373521726525</v>
+        <v>16.11440895062061</v>
       </c>
       <c r="C5">
-        <v>16.71144701688567</v>
+        <v>9.698271865777047</v>
       </c>
       <c r="D5">
-        <v>4.135852471860842</v>
+        <v>5.870362626257357</v>
       </c>
       <c r="E5">
-        <v>8.317942687329126</v>
+        <v>9.26040404204689</v>
       </c>
       <c r="F5">
-        <v>34.88737666787027</v>
+        <v>33.52214516453438</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.52914033883406</v>
+        <v>16.18691059239601</v>
       </c>
       <c r="N5">
-        <v>13.1233097482804</v>
+        <v>18.74966355470369</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37745832315009</v>
+        <v>16.08758689441252</v>
       </c>
       <c r="C6">
-        <v>16.64768936817592</v>
+        <v>9.671007875204026</v>
       </c>
       <c r="D6">
-        <v>4.137432200198668</v>
+        <v>5.871145816018217</v>
       </c>
       <c r="E6">
-        <v>8.296730903736192</v>
+        <v>9.257272521522481</v>
       </c>
       <c r="F6">
-        <v>34.7928523092534</v>
+        <v>33.50158115043911</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.4630541181336</v>
+        <v>16.17527863821537</v>
       </c>
       <c r="N6">
-        <v>13.13104674155637</v>
+        <v>18.75191877925726</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.97126067690549</v>
+        <v>16.27335333375497</v>
       </c>
       <c r="C7">
-        <v>17.08651568763232</v>
+        <v>9.858926798303038</v>
       </c>
       <c r="D7">
-        <v>4.12681273897069</v>
+        <v>5.865799607965835</v>
       </c>
       <c r="E7">
-        <v>8.443835938137921</v>
+        <v>9.279244010580452</v>
       </c>
       <c r="F7">
-        <v>35.44779856408836</v>
+        <v>33.64508651109998</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.91795578660328</v>
+        <v>16.25633918962976</v>
       </c>
       <c r="N7">
-        <v>13.07782514445386</v>
+        <v>18.73643766586023</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.46865140586051</v>
+        <v>17.08095773709585</v>
       </c>
       <c r="C8">
-        <v>18.93266593170479</v>
+        <v>10.65406455213075</v>
       </c>
       <c r="D8">
-        <v>4.089207565116788</v>
+        <v>5.844445704136819</v>
       </c>
       <c r="E8">
-        <v>9.089326413849973</v>
+        <v>9.381918366212053</v>
       </c>
       <c r="F8">
-        <v>38.30687114439191</v>
+        <v>34.29631427241117</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.83292369622572</v>
+        <v>16.62133595036869</v>
       </c>
       <c r="N8">
-        <v>12.85543950467529</v>
+        <v>18.67240166067969</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.94754558484156</v>
+        <v>18.6035808152002</v>
       </c>
       <c r="C9">
-        <v>22.2477782496658</v>
+        <v>12.08040843514818</v>
       </c>
       <c r="D9">
-        <v>4.056548172292318</v>
+        <v>5.810720801783428</v>
       </c>
       <c r="E9">
-        <v>10.34055733258795</v>
+        <v>9.602719317891408</v>
       </c>
       <c r="F9">
-        <v>43.7923747106851</v>
+        <v>35.62764776307572</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.27598419287413</v>
+        <v>17.35683165452813</v>
       </c>
       <c r="N9">
-        <v>12.47066875172855</v>
+        <v>18.56227980556226</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.00925451093271</v>
+        <v>19.67171448310215</v>
       </c>
       <c r="C10">
-        <v>24.51873375443924</v>
+        <v>13.04064062650098</v>
       </c>
       <c r="D10">
-        <v>4.066372835934944</v>
+        <v>5.791011652195978</v>
       </c>
       <c r="E10">
-        <v>11.37361851808524</v>
+        <v>9.775709390113901</v>
       </c>
       <c r="F10">
-        <v>47.80014227587242</v>
+        <v>36.62942440421061</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.63746146880487</v>
+        <v>17.90346753237168</v>
       </c>
       <c r="N10">
-        <v>12.22723134149844</v>
+        <v>18.49086276867227</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.35940642686013</v>
+        <v>20.14433384215461</v>
       </c>
       <c r="C11">
-        <v>25.52179418688218</v>
+        <v>13.45745444288348</v>
       </c>
       <c r="D11">
-        <v>4.080518749809647</v>
+        <v>5.783167833827723</v>
       </c>
       <c r="E11">
-        <v>11.86666045459628</v>
+        <v>9.856491597936319</v>
       </c>
       <c r="F11">
-        <v>49.71654230200463</v>
+        <v>37.08828772162371</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.68116923220595</v>
+        <v>18.15231892267443</v>
       </c>
       <c r="N11">
-        <v>12.12733489812995</v>
+        <v>18.46044964086801</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.8652440299142</v>
+        <v>20.32122904065501</v>
       </c>
       <c r="C12">
-        <v>25.89788164240571</v>
+        <v>13.61235513597237</v>
       </c>
       <c r="D12">
-        <v>4.087497199416003</v>
+        <v>5.780360740087708</v>
       </c>
       <c r="E12">
-        <v>12.05215263981668</v>
+        <v>9.88735957965496</v>
       </c>
       <c r="F12">
-        <v>50.43992033812894</v>
+        <v>37.26233564311804</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>27.0725948211224</v>
+        <v>18.24648372154766</v>
       </c>
       <c r="N12">
-        <v>12.09131460469056</v>
+        <v>18.44923278991236</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.75653223578487</v>
+        <v>20.28322622476487</v>
       </c>
       <c r="C13">
-        <v>25.81704118602837</v>
+        <v>13.57912599240406</v>
       </c>
       <c r="D13">
-        <v>4.085918109937344</v>
+        <v>5.780958010379282</v>
       </c>
       <c r="E13">
-        <v>12.01225154317308</v>
+        <v>9.880699632615105</v>
       </c>
       <c r="F13">
-        <v>50.28421304044677</v>
+        <v>37.22484118416133</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.98845303520727</v>
+        <v>18.22620824482187</v>
       </c>
       <c r="N13">
-        <v>12.09898726371217</v>
+        <v>18.45163517374446</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.4011265186691</v>
+        <v>20.15892958924</v>
       </c>
       <c r="C14">
-        <v>25.55280668971122</v>
+        <v>13.4702573962845</v>
       </c>
       <c r="D14">
-        <v>4.081058930520169</v>
+        <v>5.782933611309655</v>
       </c>
       <c r="E14">
-        <v>11.88194318167551</v>
+        <v>9.859025695714351</v>
       </c>
       <c r="F14">
-        <v>49.77609512817537</v>
+        <v>37.10260195040454</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.71344455621664</v>
+        <v>18.16006785458014</v>
       </c>
       <c r="N14">
-        <v>12.12433363236959</v>
+        <v>18.45952080329769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.18274504074275</v>
+        <v>20.08251945131359</v>
       </c>
       <c r="C15">
-        <v>25.39048554580282</v>
+        <v>13.40318807055227</v>
       </c>
       <c r="D15">
-        <v>4.078301142323557</v>
+        <v>5.784165031281026</v>
       </c>
       <c r="E15">
-        <v>11.80197858137279</v>
+        <v>9.845785239874836</v>
       </c>
       <c r="F15">
-        <v>49.46458891926851</v>
+        <v>37.02775930226772</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.54451771313329</v>
+        <v>18.11954307031191</v>
       </c>
       <c r="N15">
-        <v>12.14010278905963</v>
+        <v>18.46439008800884</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.92021778968236</v>
+        <v>19.64054581475943</v>
       </c>
       <c r="C16">
-        <v>24.45262373557334</v>
+        <v>13.01299282073057</v>
       </c>
       <c r="D16">
-        <v>4.06566201732964</v>
+        <v>5.791546999089976</v>
       </c>
       <c r="E16">
-        <v>11.34120803965282</v>
+        <v>9.770470168145737</v>
       </c>
       <c r="F16">
-        <v>47.67451817695331</v>
+        <v>36.59948566380625</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.56868617961504</v>
+        <v>17.88719989589468</v>
       </c>
       <c r="N16">
-        <v>12.23399815156128</v>
+        <v>18.49289222311612</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.13523761980625</v>
+        <v>19.36588329044434</v>
       </c>
       <c r="C17">
-        <v>23.86996333249418</v>
+        <v>12.76844976273579</v>
       </c>
       <c r="D17">
-        <v>4.060540378448787</v>
+        <v>5.796364274225985</v>
       </c>
       <c r="E17">
-        <v>11.05600814338765</v>
+        <v>9.724785616391513</v>
       </c>
       <c r="F17">
-        <v>46.61024323409876</v>
+        <v>36.33744074762073</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.96261119333783</v>
+        <v>17.74464234408299</v>
       </c>
       <c r="N17">
-        <v>12.29453895220125</v>
+        <v>18.510909884177</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67967702374562</v>
+        <v>19.206663224379</v>
       </c>
       <c r="C18">
-        <v>23.53196907156439</v>
+        <v>12.62591522515745</v>
       </c>
       <c r="D18">
-        <v>4.058489755657666</v>
+        <v>5.799240537232763</v>
       </c>
       <c r="E18">
-        <v>10.89093489239369</v>
+        <v>9.698707019682169</v>
       </c>
       <c r="F18">
-        <v>46.0167868408317</v>
+        <v>36.18702571638374</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.61109792056471</v>
+        <v>17.6626698723302</v>
       </c>
       <c r="N18">
-        <v>12.33036352031086</v>
+        <v>18.52146836234491</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5247152559132</v>
+        <v>19.15254622320106</v>
       </c>
       <c r="C19">
-        <v>23.41702250835757</v>
+        <v>12.57733471984115</v>
       </c>
       <c r="D19">
-        <v>4.057942716271732</v>
+        <v>5.800232452911377</v>
       </c>
       <c r="E19">
-        <v>10.83485717703629</v>
+        <v>9.68991193764349</v>
       </c>
       <c r="F19">
-        <v>45.81569739172939</v>
+        <v>36.13615551252168</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.49156457548569</v>
+        <v>17.63492232240069</v>
       </c>
       <c r="N19">
-        <v>12.34265861430188</v>
+        <v>18.5250767593743</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.21921570408555</v>
+        <v>19.3952513375291</v>
       </c>
       <c r="C20">
-        <v>23.93228108343786</v>
+        <v>12.79467683423343</v>
       </c>
       <c r="D20">
-        <v>4.060991371927694</v>
+        <v>5.79584053549775</v>
       </c>
       <c r="E20">
-        <v>11.08647293419485</v>
+        <v>9.72962849117361</v>
       </c>
       <c r="F20">
-        <v>46.7200096566163</v>
+        <v>36.36530539749585</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.02742665327867</v>
+        <v>17.75981618209864</v>
       </c>
       <c r="N20">
-        <v>12.28798882189973</v>
+        <v>18.50897166007405</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.50565917663047</v>
+        <v>20.19549607187578</v>
       </c>
       <c r="C21">
-        <v>25.63051553876761</v>
+        <v>13.50231489355206</v>
       </c>
       <c r="D21">
-        <v>4.08244017393879</v>
+        <v>5.78234888566513</v>
       </c>
       <c r="E21">
-        <v>11.92024785335607</v>
+        <v>9.865384508578812</v>
       </c>
       <c r="F21">
-        <v>49.92539570865348</v>
+        <v>37.13850011338286</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.79431925781701</v>
+        <v>18.17949753376443</v>
       </c>
       <c r="N21">
-        <v>12.11683746719327</v>
+        <v>18.45719644957579</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.96871408799668</v>
+        <v>20.70634198437668</v>
       </c>
       <c r="C22">
-        <v>26.71889155445372</v>
+        <v>13.94765479211746</v>
       </c>
       <c r="D22">
-        <v>4.106043084291694</v>
+        <v>5.77448337824492</v>
       </c>
       <c r="E22">
-        <v>12.45830369466087</v>
+        <v>9.955715605511841</v>
       </c>
       <c r="F22">
-        <v>52.02780833160886</v>
+        <v>37.64542234166879</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.92726502008966</v>
+        <v>18.45333472478561</v>
       </c>
       <c r="N22">
-        <v>12.01567611517209</v>
+        <v>18.42510741093436</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19045267729371</v>
+        <v>20.43485610602167</v>
       </c>
       <c r="C23">
-        <v>26.1397600148094</v>
+        <v>13.71155403406797</v>
       </c>
       <c r="D23">
-        <v>4.092483551486229</v>
+        <v>5.77859361798466</v>
       </c>
       <c r="E23">
-        <v>12.17163493165849</v>
+        <v>9.907364824328567</v>
       </c>
       <c r="F23">
-        <v>50.90650150539293</v>
+        <v>37.3747764499812</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.32436504987672</v>
+        <v>18.3072545278696</v>
       </c>
       <c r="N23">
-        <v>12.0685926149967</v>
+        <v>18.44207335981085</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.18126254752978</v>
+        <v>19.38197812009776</v>
       </c>
       <c r="C24">
-        <v>23.90411666051444</v>
+        <v>12.78282562389478</v>
       </c>
       <c r="D24">
-        <v>4.060784710556326</v>
+        <v>5.796076985422631</v>
       </c>
       <c r="E24">
-        <v>11.07270327762088</v>
+        <v>9.727438446226765</v>
       </c>
       <c r="F24">
-        <v>46.67038759122446</v>
+        <v>36.35270703503122</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.99813319734579</v>
+        <v>17.7529561269282</v>
       </c>
       <c r="N24">
-        <v>12.29094698053254</v>
+        <v>18.50984730871378</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.77819933238543</v>
+        <v>18.19967843479023</v>
       </c>
       <c r="C25">
-        <v>21.38158482988342</v>
+        <v>11.70955322661461</v>
       </c>
       <c r="D25">
-        <v>4.06015187207938</v>
+        <v>5.818961487626517</v>
       </c>
       <c r="E25">
-        <v>10.00349153080441</v>
+        <v>9.541012466094122</v>
       </c>
       <c r="F25">
-        <v>42.32111136403928</v>
+        <v>35.26264829729023</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.37585476780828</v>
+        <v>17.15634805218525</v>
       </c>
       <c r="N25">
-        <v>12.56853751039225</v>
+        <v>18.59040941441016</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.29619540223941</v>
+        <v>26.11614660427157</v>
       </c>
       <c r="C2">
-        <v>10.86081673650695</v>
+        <v>19.41152626607831</v>
       </c>
       <c r="D2">
-        <v>5.839207731680963</v>
+        <v>4.081514162198802</v>
       </c>
       <c r="E2">
-        <v>9.411092624575813</v>
+        <v>9.263226182751689</v>
       </c>
       <c r="F2">
-        <v>34.4767854725484</v>
+        <v>39.07340964056873</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.72178415589129</v>
+        <v>20.32993222266359</v>
       </c>
       <c r="N2">
-        <v>18.65609438729731</v>
+        <v>12.7984147828755</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66770173180015</v>
+        <v>24.20586217997975</v>
       </c>
       <c r="C3">
-        <v>10.25130124603323</v>
+        <v>17.99903521126052</v>
       </c>
       <c r="D3">
-        <v>5.855014677497666</v>
+        <v>4.106725240448835</v>
       </c>
       <c r="E3">
-        <v>9.327985292081859</v>
+        <v>8.757731702546888</v>
       </c>
       <c r="F3">
-        <v>33.95775021068366</v>
+        <v>36.84099457653427</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.43211586361196</v>
+        <v>18.86425681150145</v>
       </c>
       <c r="N3">
-        <v>18.704559713776</v>
+        <v>12.96750301723619</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27552129864774</v>
+        <v>22.97814064316652</v>
       </c>
       <c r="C4">
-        <v>9.861107621943347</v>
+        <v>17.09160025717701</v>
       </c>
       <c r="D4">
-        <v>5.865738270268817</v>
+        <v>4.126693220434785</v>
       </c>
       <c r="E4">
-        <v>9.279504279466662</v>
+        <v>8.445555453517175</v>
       </c>
       <c r="F4">
-        <v>33.6467760026637</v>
+        <v>35.45544628275763</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25729199141953</v>
+        <v>17.92322727605644</v>
       </c>
       <c r="N4">
-        <v>18.73625885600953</v>
+        <v>13.07720895714992</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.11440895062061</v>
+        <v>22.46373521726528</v>
       </c>
       <c r="C5">
-        <v>9.698271865777047</v>
+        <v>16.71144701688557</v>
       </c>
       <c r="D5">
-        <v>5.870362626257357</v>
+        <v>4.135852471861004</v>
       </c>
       <c r="E5">
-        <v>9.26040404204689</v>
+        <v>8.317942687329129</v>
       </c>
       <c r="F5">
-        <v>33.52214516453438</v>
+        <v>34.88737666787031</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.18691059239601</v>
+        <v>17.52914033883406</v>
       </c>
       <c r="N5">
-        <v>18.74966355470369</v>
+        <v>13.12330974828041</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.08758689441252</v>
+        <v>22.37745832315014</v>
       </c>
       <c r="C6">
-        <v>9.671007875204026</v>
+        <v>16.64768936817609</v>
       </c>
       <c r="D6">
-        <v>5.871145816018217</v>
+        <v>4.137432200198682</v>
       </c>
       <c r="E6">
-        <v>9.257272521522481</v>
+        <v>8.29673090373625</v>
       </c>
       <c r="F6">
-        <v>33.50158115043911</v>
+        <v>34.79285230925331</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.17527863821537</v>
+        <v>17.46305411813364</v>
       </c>
       <c r="N6">
-        <v>18.75191877925726</v>
+        <v>13.13104674155625</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.27335333375497</v>
+        <v>22.97126067690564</v>
       </c>
       <c r="C7">
-        <v>9.858926798303038</v>
+        <v>17.0865156876325</v>
       </c>
       <c r="D7">
-        <v>5.865799607965835</v>
+        <v>4.126812738970529</v>
       </c>
       <c r="E7">
-        <v>9.279244010580452</v>
+        <v>8.443835938138013</v>
       </c>
       <c r="F7">
-        <v>33.64508651109998</v>
+        <v>35.44779856408821</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.25633918962976</v>
+        <v>17.91795578660336</v>
       </c>
       <c r="N7">
-        <v>18.73643766586023</v>
+        <v>13.07782514445376</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.08095773709585</v>
+        <v>25.46865140586064</v>
       </c>
       <c r="C8">
-        <v>10.65406455213075</v>
+        <v>18.9326659317047</v>
       </c>
       <c r="D8">
-        <v>5.844445704136819</v>
+        <v>4.089207565116893</v>
       </c>
       <c r="E8">
-        <v>9.381918366212053</v>
+        <v>9.089326413850012</v>
       </c>
       <c r="F8">
-        <v>34.29631427241117</v>
+        <v>38.30687114439191</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.62133595036869</v>
+        <v>19.8329236962258</v>
       </c>
       <c r="N8">
-        <v>18.67240166067969</v>
+        <v>12.85543950467525</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.6035808152002</v>
+        <v>29.94754558484177</v>
       </c>
       <c r="C9">
-        <v>12.08040843514818</v>
+        <v>22.24777824966592</v>
       </c>
       <c r="D9">
-        <v>5.810720801783428</v>
+        <v>4.056548172292338</v>
       </c>
       <c r="E9">
-        <v>9.602719317891408</v>
+        <v>10.34055733258797</v>
       </c>
       <c r="F9">
-        <v>35.62764776307572</v>
+        <v>43.79237471068521</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.35683165452813</v>
+        <v>23.27598419287425</v>
       </c>
       <c r="N9">
-        <v>18.56227980556226</v>
+        <v>12.47066875172854</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.67171448310215</v>
+        <v>33.0092545109329</v>
       </c>
       <c r="C10">
-        <v>13.04064062650098</v>
+        <v>24.51873375443944</v>
       </c>
       <c r="D10">
-        <v>5.791011652195978</v>
+        <v>4.066372835934866</v>
       </c>
       <c r="E10">
-        <v>9.775709390113901</v>
+        <v>11.37361851808526</v>
       </c>
       <c r="F10">
-        <v>36.62942440421061</v>
+        <v>47.8001422758726</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.90346753237168</v>
+        <v>25.637461468805</v>
       </c>
       <c r="N10">
-        <v>18.49086276867227</v>
+        <v>12.22723134149835</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.14433384215461</v>
+        <v>34.35940642686032</v>
       </c>
       <c r="C11">
-        <v>13.45745444288348</v>
+        <v>25.52179418688237</v>
       </c>
       <c r="D11">
-        <v>5.783167833827723</v>
+        <v>4.080518749809581</v>
       </c>
       <c r="E11">
-        <v>9.856491597936319</v>
+        <v>11.86666045459632</v>
       </c>
       <c r="F11">
-        <v>37.08828772162371</v>
+        <v>49.71654230200488</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.15231892267443</v>
+        <v>26.68116923220608</v>
       </c>
       <c r="N11">
-        <v>18.46044964086801</v>
+        <v>12.12733489812987</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.32122904065501</v>
+        <v>34.86524402991408</v>
       </c>
       <c r="C12">
-        <v>13.61235513597237</v>
+        <v>25.89788164240553</v>
       </c>
       <c r="D12">
-        <v>5.780360740087708</v>
+        <v>4.087497199416066</v>
       </c>
       <c r="E12">
-        <v>9.88735957965496</v>
+        <v>12.05215263981661</v>
       </c>
       <c r="F12">
-        <v>37.26233564311804</v>
+        <v>50.43992033812872</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.24648372154766</v>
+        <v>27.07259482112227</v>
       </c>
       <c r="N12">
-        <v>18.44923278991236</v>
+        <v>12.09131460469056</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.28322622476487</v>
+        <v>34.75653223578489</v>
       </c>
       <c r="C13">
-        <v>13.57912599240406</v>
+        <v>25.81704118602834</v>
       </c>
       <c r="D13">
-        <v>5.780958010379282</v>
+        <v>4.085918109937346</v>
       </c>
       <c r="E13">
-        <v>9.880699632615105</v>
+        <v>12.01225154317311</v>
       </c>
       <c r="F13">
-        <v>37.22484118416133</v>
+        <v>50.28421304044679</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.22620824482187</v>
+        <v>26.98845303520728</v>
       </c>
       <c r="N13">
-        <v>18.45163517374446</v>
+        <v>12.09898726371217</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.15892958924</v>
+        <v>34.40112651866904</v>
       </c>
       <c r="C14">
-        <v>13.4702573962845</v>
+        <v>25.55280668971122</v>
       </c>
       <c r="D14">
-        <v>5.782933611309655</v>
+        <v>4.081058930520141</v>
       </c>
       <c r="E14">
-        <v>9.859025695714351</v>
+        <v>11.88194318167552</v>
       </c>
       <c r="F14">
-        <v>37.10260195040454</v>
+        <v>49.77609512817531</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.16006785458014</v>
+        <v>26.71344455621665</v>
       </c>
       <c r="N14">
-        <v>18.45952080329769</v>
+        <v>12.12433363236957</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.08251945131359</v>
+        <v>34.18274504074276</v>
       </c>
       <c r="C15">
-        <v>13.40318807055227</v>
+        <v>25.39048554580274</v>
       </c>
       <c r="D15">
-        <v>5.784165031281026</v>
+        <v>4.078301142323461</v>
       </c>
       <c r="E15">
-        <v>9.845785239874836</v>
+        <v>11.80197858137278</v>
       </c>
       <c r="F15">
-        <v>37.02775930226772</v>
+        <v>49.46458891926848</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.11954307031191</v>
+        <v>26.54451771313327</v>
       </c>
       <c r="N15">
-        <v>18.46439008800884</v>
+        <v>12.14010278905962</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.64054581475943</v>
+        <v>32.9202177896825</v>
       </c>
       <c r="C16">
-        <v>13.01299282073057</v>
+        <v>24.45262373557334</v>
       </c>
       <c r="D16">
-        <v>5.791546999089976</v>
+        <v>4.065662017329577</v>
       </c>
       <c r="E16">
-        <v>9.770470168145737</v>
+        <v>11.34120803965278</v>
       </c>
       <c r="F16">
-        <v>36.59948566380625</v>
+        <v>47.67451817695338</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.88719989589468</v>
+        <v>25.56868617961509</v>
       </c>
       <c r="N16">
-        <v>18.49289222311612</v>
+        <v>12.23399815156129</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.36588329044434</v>
+        <v>32.13523761980627</v>
       </c>
       <c r="C17">
-        <v>12.76844976273579</v>
+        <v>23.86996333249418</v>
       </c>
       <c r="D17">
-        <v>5.796364274225985</v>
+        <v>4.060540378448788</v>
       </c>
       <c r="E17">
-        <v>9.724785616391513</v>
+        <v>11.05600814338765</v>
       </c>
       <c r="F17">
-        <v>36.33744074762073</v>
+        <v>46.61024323409877</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.74464234408299</v>
+        <v>24.96261119333784</v>
       </c>
       <c r="N17">
-        <v>18.510909884177</v>
+        <v>12.29453895220117</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.206663224379</v>
+        <v>31.67967702374567</v>
       </c>
       <c r="C18">
-        <v>12.62591522515745</v>
+        <v>23.53196907156447</v>
       </c>
       <c r="D18">
-        <v>5.799240537232763</v>
+        <v>4.058489755657766</v>
       </c>
       <c r="E18">
-        <v>9.698707019682169</v>
+        <v>10.89093489239368</v>
       </c>
       <c r="F18">
-        <v>36.18702571638374</v>
+        <v>46.01678684083178</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.6626698723302</v>
+        <v>24.61109792056475</v>
       </c>
       <c r="N18">
-        <v>18.52146836234491</v>
+        <v>12.33036352031079</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.15254622320106</v>
+        <v>31.52471525591321</v>
       </c>
       <c r="C19">
-        <v>12.57733471984115</v>
+        <v>23.41702250835762</v>
       </c>
       <c r="D19">
-        <v>5.800232452911377</v>
+        <v>4.057942716271831</v>
       </c>
       <c r="E19">
-        <v>9.68991193764349</v>
+        <v>10.83485717703623</v>
       </c>
       <c r="F19">
-        <v>36.13615551252168</v>
+        <v>45.81569739172944</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.63492232240069</v>
+        <v>24.49156457548568</v>
       </c>
       <c r="N19">
-        <v>18.5250767593743</v>
+        <v>12.34265861430189</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.3952513375291</v>
+        <v>32.21921570408556</v>
       </c>
       <c r="C20">
-        <v>12.79467683423343</v>
+        <v>23.93228108343773</v>
       </c>
       <c r="D20">
-        <v>5.79584053549775</v>
+        <v>4.060991371927644</v>
       </c>
       <c r="E20">
-        <v>9.72962849117361</v>
+        <v>11.0864729341949</v>
       </c>
       <c r="F20">
-        <v>36.36530539749585</v>
+        <v>46.72000965661617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.75981618209864</v>
+        <v>25.02742665327867</v>
       </c>
       <c r="N20">
-        <v>18.50897166007405</v>
+        <v>12.2879888218997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19549607187578</v>
+        <v>34.50565917663037</v>
       </c>
       <c r="C21">
-        <v>13.50231489355206</v>
+        <v>25.63051553876746</v>
       </c>
       <c r="D21">
-        <v>5.78234888566513</v>
+        <v>4.082440173938825</v>
       </c>
       <c r="E21">
-        <v>9.865384508578812</v>
+        <v>11.92024785335614</v>
       </c>
       <c r="F21">
-        <v>37.13850011338286</v>
+        <v>49.92539570865331</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.17949753376443</v>
+        <v>26.79431925781697</v>
       </c>
       <c r="N21">
-        <v>18.45719644957579</v>
+        <v>12.11683746719328</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.70634198437668</v>
+        <v>35.96871408799669</v>
       </c>
       <c r="C22">
-        <v>13.94765479211746</v>
+        <v>26.71889155445379</v>
       </c>
       <c r="D22">
-        <v>5.77448337824492</v>
+        <v>4.106043084291694</v>
       </c>
       <c r="E22">
-        <v>9.955715605511841</v>
+        <v>12.4583036946609</v>
       </c>
       <c r="F22">
-        <v>37.64542234166879</v>
+        <v>52.02780833160888</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.45333472478561</v>
+        <v>27.9272650200897</v>
       </c>
       <c r="N22">
-        <v>18.42510741093436</v>
+        <v>12.01567611517202</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.43485610602167</v>
+        <v>35.19045267729384</v>
       </c>
       <c r="C23">
-        <v>13.71155403406797</v>
+        <v>26.13976001480952</v>
       </c>
       <c r="D23">
-        <v>5.77859361798466</v>
+        <v>4.09248355148632</v>
       </c>
       <c r="E23">
-        <v>9.907364824328567</v>
+        <v>12.1716349316585</v>
       </c>
       <c r="F23">
-        <v>37.3747764499812</v>
+        <v>50.90650150539309</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.3072545278696</v>
+        <v>27.32436504987683</v>
       </c>
       <c r="N23">
-        <v>18.44207335981085</v>
+        <v>12.06859261499677</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.38197812009776</v>
+        <v>32.18126254752989</v>
       </c>
       <c r="C24">
-        <v>12.78282562389478</v>
+        <v>23.90411666051448</v>
       </c>
       <c r="D24">
-        <v>5.796076985422631</v>
+        <v>4.060784710556213</v>
       </c>
       <c r="E24">
-        <v>9.727438446226765</v>
+        <v>11.07270327762085</v>
       </c>
       <c r="F24">
-        <v>36.35270703503122</v>
+        <v>46.67038759122451</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.7529561269282</v>
+        <v>24.99813319734585</v>
       </c>
       <c r="N24">
-        <v>18.50984730871378</v>
+        <v>12.29094698053249</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.19967843479023</v>
+        <v>28.7781993323856</v>
       </c>
       <c r="C25">
-        <v>11.70955322661461</v>
+        <v>21.38158482988371</v>
       </c>
       <c r="D25">
-        <v>5.818961487626517</v>
+        <v>4.060151872079336</v>
       </c>
       <c r="E25">
-        <v>9.541012466094122</v>
+        <v>10.00349153080444</v>
       </c>
       <c r="F25">
-        <v>35.26264829729023</v>
+        <v>42.32111136403928</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.15634805218525</v>
+        <v>22.37585476780843</v>
       </c>
       <c r="N25">
-        <v>18.59040941441016</v>
+        <v>12.56853751039216</v>
       </c>
       <c r="O25">
         <v>0</v>
